--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3334.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3334.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.085039355962475</v>
+        <v>2.33083176612854</v>
       </c>
       <c r="B1">
-        <v>2.612098949016697</v>
+        <v>4.3038010597229</v>
       </c>
       <c r="C1">
-        <v>8.629206536080073</v>
+        <v>3.271773338317871</v>
       </c>
       <c r="D1">
-        <v>2.246012502342855</v>
+        <v>1.021642446517944</v>
       </c>
       <c r="E1">
-        <v>1.283829548024181</v>
+        <v>0.4989390671253204</v>
       </c>
     </row>
   </sheetData>
